--- a/src/exports/export_001/output/rads_2019_2022_total_menor_0.xlsx
+++ b/src/exports/export_001/output/rads_2019_2022_total_menor_0.xlsx
@@ -497,7 +497,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1369</v>
+        <v>4803</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1372</v>
+        <v>4806</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1383</v>
+        <v>4817</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1388</v>
+        <v>4822</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1389</v>
+        <v>4823</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>102.4</v>
+        <v>102</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1411</v>
+        <v>4845</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-100.02</v>
+        <v>-100</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1419</v>
+        <v>4853</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1427</v>
+        <v>4861</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1445</v>
+        <v>4879</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>180.87</v>
+        <v>180</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1461</v>
+        <v>4895</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1478</v>
+        <v>4912</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1631</v>
+        <v>5065</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>76.38749999999999</v>
+        <v>76</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>76.38749999999999</v>
+        <v>76</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1683</v>
+        <v>5117</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>75.7435</v>
+        <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>18.75</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="K14" t="n">
-        <v>103.6935</v>
+        <v>103</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1805</v>
+        <v>5239</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1830</v>
+        <v>5264</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>83.35000000000001</v>
+        <v>83</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1863</v>
+        <v>5297</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1877</v>
+        <v>5311</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>83.35000000000001</v>
+        <v>83</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2009</v>
+        <v>5443</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>540.5899999999999</v>
+        <v>540</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2163</v>
+        <v>5597</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>135.7</v>
+        <v>135</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2197</v>
+        <v>5631</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2249</v>
+        <v>5683</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2334</v>
+        <v>5768</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>63.6125</v>
+        <v>63</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>63.6125</v>
+        <v>63</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2348</v>
+        <v>5782</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>79.53749999999999</v>
+        <v>79</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>79.53749999999999</v>
+        <v>79</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2374</v>
+        <v>5808</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1525,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>114.331</v>
+        <v>114</v>
       </c>
       <c r="F25" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>75.03999999999999</v>
+        <v>75</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>203.121</v>
+        <v>203</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2503</v>
+        <v>5937</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>137.02</v>
+        <v>137</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2522</v>
+        <v>5956</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1628,10 +1628,10 @@
         <v>15</v>
       </c>
       <c r="J27" t="n">
-        <v>40.02</v>
+        <v>40</v>
       </c>
       <c r="K27" t="n">
-        <v>146.02</v>
+        <v>146</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2577</v>
+        <v>6011</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2597</v>
+        <v>6031</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.675</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>83.35000000000001</v>
+        <v>83</v>
       </c>
       <c r="K29" t="n">
-        <v>87.02500000000001</v>
+        <v>87</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2618</v>
+        <v>6052</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1745,25 +1745,25 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>86.625</v>
+        <v>86</v>
       </c>
       <c r="F30" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>109.26</v>
+        <v>109</v>
       </c>
       <c r="K30" t="n">
-        <v>210.885</v>
+        <v>210</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2708</v>
+        <v>6142</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2775</v>
+        <v>6209</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>53.6655</v>
+        <v>53</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1848,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>129.39</v>
+        <v>129</v>
       </c>
       <c r="K32" t="n">
-        <v>183.0555</v>
+        <v>183</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2787</v>
+        <v>6221</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>71.86199999999999</v>
+        <v>71</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>191.33</v>
+        <v>191</v>
       </c>
       <c r="K33" t="n">
-        <v>285.692</v>
+        <v>285</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2800</v>
+        <v>6234</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2905</v>
+        <v>6339</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3110</v>
+        <v>6544</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>84.06999999999999</v>
+        <v>84</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2024,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.04</v>
+        <v>20</v>
       </c>
       <c r="K36" t="n">
-        <v>104.11</v>
+        <v>104</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3300</v>
+        <v>6734</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>200.04</v>
+        <v>200</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>200.04</v>
+        <v>200</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3513</v>
+        <v>6947</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3523</v>
+        <v>6957</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>112.56</v>
+        <v>112</v>
       </c>
       <c r="K39" t="n">
-        <v>112.56</v>
+        <v>112</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3524</v>
+        <v>6958</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2200,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.04</v>
+        <v>20</v>
       </c>
       <c r="K40" t="n">
-        <v>90.03999999999999</v>
+        <v>90</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3533</v>
+        <v>6967</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3538</v>
+        <v>6972</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2288,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>50.01000000000001</v>
+        <v>50</v>
       </c>
       <c r="K42" t="n">
-        <v>55.01000000000001</v>
+        <v>55</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3543</v>
+        <v>6977</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2317,13 +2317,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>65.09999999999999</v>
+        <v>65</v>
       </c>
       <c r="F43" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.34</v>
+        <v>16</v>
       </c>
       <c r="K43" t="n">
-        <v>97.69</v>
+        <v>97</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3566</v>
+        <v>7000</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>116.2</v>
+        <v>116</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>116.2</v>
+        <v>116</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3623</v>
+        <v>7057</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3779</v>
+        <v>7213</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2449,25 +2449,25 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>74.66549999999999</v>
+        <v>74</v>
       </c>
       <c r="F46" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>74</v>
       </c>
       <c r="I46" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>48.84</v>
+        <v>48</v>
       </c>
       <c r="K46" t="n">
-        <v>201.5155</v>
+        <v>201</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3786</v>
+        <v>7220</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>75.425</v>
+        <v>75</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>22.56</v>
+        <v>22</v>
       </c>
       <c r="K47" t="n">
-        <v>97.985</v>
+        <v>97</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3885</v>
+        <v>7319</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2540,22 +2540,22 @@
         <v>42</v>
       </c>
       <c r="F48" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
         <v>15</v>
       </c>
       <c r="H48" t="n">
-        <v>108.25</v>
+        <v>108</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>71.56</v>
+        <v>71</v>
       </c>
       <c r="K48" t="n">
-        <v>240.56</v>
+        <v>240</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3933</v>
+        <v>7367</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2581,13 +2581,13 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>89.25</v>
+        <v>89</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>16.67</v>
+        <v>16</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2596,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>6.68</v>
+        <v>6</v>
       </c>
       <c r="K49" t="n">
-        <v>112.6</v>
+        <v>112</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4005</v>
+        <v>7439</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4011</v>
+        <v>7445</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2669,25 +2669,25 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>99.75</v>
+        <v>99</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>12.92</v>
+        <v>12</v>
       </c>
       <c r="J51" t="n">
-        <v>66.84999999999999</v>
+        <v>66</v>
       </c>
       <c r="K51" t="n">
-        <v>187.02</v>
+        <v>187</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4012</v>
+        <v>7446</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4136</v>
+        <v>7570</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>89.91499999999999</v>
+        <v>89</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="K53" t="n">
-        <v>112.415</v>
+        <v>112</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4158</v>
+        <v>7592</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>78.7675</v>
+        <v>78</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="K54" t="n">
-        <v>88.78749999999999</v>
+        <v>88</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4169</v>
+        <v>7603</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>83.3</v>
+        <v>83</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4202</v>
+        <v>7636</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2889,25 +2889,25 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>93.8</v>
+        <v>93</v>
       </c>
       <c r="F56" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>11.9</v>
+        <v>11</v>
       </c>
       <c r="H56" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>198.75</v>
+        <v>198</v>
       </c>
       <c r="K56" t="n">
-        <v>309.7</v>
+        <v>309</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4204</v>
+        <v>7638</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>57.4</v>
+        <v>57</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>142.8</v>
+        <v>142</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4205</v>
+        <v>7639</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2977,25 +2977,25 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>124.32</v>
+        <v>124</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>96.86</v>
+        <v>96</v>
       </c>
       <c r="K58" t="n">
-        <v>224.64</v>
+        <v>224</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4206</v>
+        <v>7640</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4207</v>
+        <v>7641</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>47.21499999999999</v>
+        <v>47</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>147.235</v>
+        <v>147</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4208</v>
+        <v>7642</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>82.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -3124,10 +3124,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>83.11999999999999</v>
+        <v>83</v>
       </c>
       <c r="K61" t="n">
-        <v>165.72</v>
+        <v>165</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4209</v>
+        <v>7643</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>67.3155</v>
+        <v>67</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -3162,16 +3162,16 @@
         <v>4</v>
       </c>
       <c r="H62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>124.62</v>
+        <v>124</v>
       </c>
       <c r="K62" t="n">
-        <v>203.4355</v>
+        <v>203</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4210</v>
+        <v>7644</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3197,25 +3197,25 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>61.24999999999999</v>
+        <v>61</v>
       </c>
       <c r="F63" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>31.25</v>
+        <v>31</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>157.88</v>
+        <v>157</v>
       </c>
       <c r="K63" t="n">
-        <v>275.88</v>
+        <v>275</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4211</v>
+        <v>7645</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>78.5155</v>
+        <v>78</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -3250,16 +3250,16 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>140.22</v>
+        <v>140</v>
       </c>
       <c r="K64" t="n">
-        <v>226.2355</v>
+        <v>226</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4212</v>
+        <v>7646</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4214</v>
+        <v>7648</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>86.8</v>
+        <v>86</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -3338,16 +3338,16 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>160.14</v>
+        <v>160</v>
       </c>
       <c r="K66" t="n">
-        <v>254.44</v>
+        <v>254</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4215</v>
+        <v>7649</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>106.127</v>
+        <v>106</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>46.02</v>
+        <v>46</v>
       </c>
       <c r="K67" t="n">
-        <v>167.147</v>
+        <v>167</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4216</v>
+        <v>7650</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>117.25</v>
+        <v>117</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>51.40000000000001</v>
+        <v>51</v>
       </c>
       <c r="K68" t="n">
-        <v>178.65</v>
+        <v>178</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4217</v>
+        <v>7651</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3461,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>118.02</v>
+        <v>118</v>
       </c>
       <c r="F69" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -3476,10 +3476,10 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>71.80999999999999</v>
+        <v>71</v>
       </c>
       <c r="K69" t="n">
-        <v>197.33</v>
+        <v>197</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4218</v>
+        <v>7652</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>107.4465</v>
+        <v>107</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>24.84</v>
+        <v>24</v>
       </c>
       <c r="K70" t="n">
-        <v>132.2865</v>
+        <v>132</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4219</v>
+        <v>7653</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3561,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>3.78</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>52.62</v>
+        <v>52</v>
       </c>
       <c r="K71" t="n">
-        <v>126.4</v>
+        <v>126</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4241</v>
+        <v>7675</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3608,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>20.04</v>
+        <v>20</v>
       </c>
       <c r="K72" t="n">
-        <v>160.04</v>
+        <v>160</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4259</v>
+        <v>7693</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="F73" t="n">
         <v>15</v>
@@ -3646,16 +3646,16 @@
         <v>7</v>
       </c>
       <c r="H73" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="I73" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>109.68</v>
+        <v>109</v>
       </c>
       <c r="K73" t="n">
-        <v>240.55</v>
+        <v>240</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4279</v>
+        <v>7713</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4282</v>
+        <v>7716</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4287</v>
+        <v>7721</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4347</v>
+        <v>7781</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3813,13 +3813,13 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>71.75</v>
+        <v>71</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>49.98</v>
+        <v>49</v>
       </c>
       <c r="H77" t="n">
         <v>14</v>
@@ -3828,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>127.71</v>
+        <v>127</v>
       </c>
       <c r="K77" t="n">
-        <v>263.44</v>
+        <v>263</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4348</v>
+        <v>7782</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3857,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>100.324</v>
+        <v>100</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>49.98</v>
+        <v>49</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>150.304</v>
+        <v>150</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4541</v>
+        <v>7975</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3901,13 +3901,13 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>111.37</v>
+        <v>111</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>41.75</v>
+        <v>41</v>
       </c>
       <c r="K79" t="n">
-        <v>155.62</v>
+        <v>155</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4549</v>
+        <v>7983</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H80" t="n">
         <v>11</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="K80" t="n">
-        <v>121.04</v>
+        <v>121</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4582</v>
+        <v>8016</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>51.97499999999999</v>
+        <v>51</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>51.97499999999999</v>
+        <v>51</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4600</v>
+        <v>8034</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>75.25</v>
+        <v>75</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -4042,16 +4042,16 @@
         <v>10</v>
       </c>
       <c r="H82" t="n">
-        <v>35.75</v>
+        <v>35</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>66.88</v>
+        <v>66</v>
       </c>
       <c r="K82" t="n">
-        <v>187.88</v>
+        <v>187</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4677</v>
+        <v>8111</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -4089,13 +4089,13 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>33.35</v>
+        <v>33</v>
       </c>
       <c r="K83" t="n">
-        <v>87.09999999999999</v>
+        <v>87</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4754</v>
+        <v>8188</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -4136,10 +4136,10 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>83.35000000000001</v>
+        <v>83</v>
       </c>
       <c r="K84" t="n">
-        <v>83.35000000000001</v>
+        <v>83</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4803</v>
+        <v>8237</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>98.17499999999998</v>
+        <v>98</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>31</v>
       </c>
       <c r="I85" t="n">
-        <v>10.01</v>
+        <v>10</v>
       </c>
       <c r="J85" t="n">
-        <v>34.27</v>
+        <v>34</v>
       </c>
       <c r="K85" t="n">
-        <v>175.455</v>
+        <v>175</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4867</v>
+        <v>8301</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>72.1875</v>
+        <v>72</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -4224,10 +4224,10 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>46.56</v>
+        <v>46</v>
       </c>
       <c r="K86" t="n">
-        <v>118.7475</v>
+        <v>118</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4925</v>
+        <v>8359</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4932</v>
+        <v>8366</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>112.35</v>
+        <v>112</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -4312,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>52.14</v>
+        <v>52</v>
       </c>
       <c r="K88" t="n">
-        <v>164.49</v>
+        <v>164</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4962</v>
+        <v>8396</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>87.5</v>
+        <v>87</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -4356,10 +4356,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>20.04</v>
+        <v>20</v>
       </c>
       <c r="K89" t="n">
-        <v>107.54</v>
+        <v>107</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4974</v>
+        <v>8408</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4992</v>
+        <v>8426</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>81.19999999999999</v>
+        <v>81</v>
       </c>
       <c r="F91" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>82.44999999999999</v>
+        <v>82</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>5007</v>
+        <v>8441</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>61.24999999999999</v>
+        <v>61</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>61.24999999999999</v>
+        <v>61</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>5015</v>
+        <v>8449</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5037</v>
+        <v>8471</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -4576,10 +4576,10 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K94" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5042</v>
+        <v>8476</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5047</v>
+        <v>8481</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5084</v>
+        <v>8518</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>75.83099999999999</v>
+        <v>75</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -4708,10 +4708,10 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>266.7</v>
+        <v>266</v>
       </c>
       <c r="K97" t="n">
-        <v>342.5310000000001</v>
+        <v>342</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5116</v>
+        <v>8550</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>49.98</v>
+        <v>49</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4752,10 +4752,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>82.57999999999998</v>
+        <v>82</v>
       </c>
       <c r="K98" t="n">
-        <v>181.56</v>
+        <v>181</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5150</v>
+        <v>8584</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -4781,10 +4781,10 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>80.78</v>
+        <v>80</v>
       </c>
       <c r="F99" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4796,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>56.77999999999999</v>
+        <v>56</v>
       </c>
       <c r="K99" t="n">
-        <v>141.23</v>
+        <v>141</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5165</v>
+        <v>8599</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -4825,13 +4825,13 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>10.269</v>
+        <v>10</v>
       </c>
       <c r="F100" t="n">
         <v>5</v>
       </c>
       <c r="G100" t="n">
-        <v>59.32</v>
+        <v>59</v>
       </c>
       <c r="H100" t="n">
         <v>11</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>44.90000000000001</v>
+        <v>44</v>
       </c>
       <c r="K100" t="n">
-        <v>130.489</v>
+        <v>130</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5182</v>
+        <v>8616</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>74.43449999999999</v>
+        <v>74</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -4884,10 +4884,10 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>77.47</v>
+        <v>77</v>
       </c>
       <c r="K101" t="n">
-        <v>154.9045</v>
+        <v>154</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>5334</v>
+        <v>8768</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -4928,10 +4928,10 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K102" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>5365</v>
+        <v>8799</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>15.75</v>
+        <v>15</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>30.75</v>
+        <v>30</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>5440</v>
+        <v>8874</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>92.75</v>
+        <v>92</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>92.75</v>
+        <v>92</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>5500</v>
+        <v>8934</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5630</v>
+        <v>9064</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -5104,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>183.68</v>
+        <v>183</v>
       </c>
       <c r="K106" t="n">
-        <v>183.68</v>
+        <v>183</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5652</v>
+        <v>9086</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>47.59999999999999</v>
+        <v>47</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -5148,10 +5148,10 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>90.64999999999999</v>
+        <v>90</v>
       </c>
       <c r="K107" t="n">
-        <v>138.25</v>
+        <v>138</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5660</v>
+        <v>9094</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5673</v>
+        <v>9107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5726</v>
+        <v>9160</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>184.45</v>
+        <v>184</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>184.45</v>
+        <v>184</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5770</v>
+        <v>9204</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -5324,10 +5324,10 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K111" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5945</v>
+        <v>9379</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>87.20949999999999</v>
+        <v>87</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -5368,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>8.35</v>
+        <v>8</v>
       </c>
       <c r="K112" t="n">
-        <v>95.55949999999999</v>
+        <v>95</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5977</v>
+        <v>9411</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>144.9</v>
+        <v>144</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>6029</v>
+        <v>9463</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>77.96249999999999</v>
+        <v>77</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -5456,10 +5456,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>5.04</v>
+        <v>5</v>
       </c>
       <c r="K114" t="n">
-        <v>124.0025</v>
+        <v>124</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>6103</v>
+        <v>9537</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>61.24999999999999</v>
+        <v>61</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -5500,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="K115" t="n">
-        <v>89.54999999999998</v>
+        <v>89</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>6204</v>
+        <v>9638</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>6226</v>
+        <v>9660</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>74.02499999999999</v>
+        <v>74</v>
       </c>
       <c r="F117" t="n">
         <v>20</v>
@@ -5588,10 +5588,10 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>17.4</v>
+        <v>17</v>
       </c>
       <c r="K117" t="n">
-        <v>111.425</v>
+        <v>111</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>6392</v>
+        <v>9826</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>93.681</v>
+        <v>93</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -5626,16 +5626,16 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="I118" t="n">
-        <v>78.75</v>
+        <v>78</v>
       </c>
       <c r="J118" t="n">
-        <v>88.55</v>
+        <v>88</v>
       </c>
       <c r="K118" t="n">
-        <v>283.481</v>
+        <v>283</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>6393</v>
+        <v>9827</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>6447</v>
+        <v>9881</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>69.3</v>
+        <v>69</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>69.3</v>
+        <v>69</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>6490</v>
+        <v>9924</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -5764,10 +5764,10 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K121" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>6669</v>
+        <v>10103</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>40.25</v>
+        <v>40</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -5808,10 +5808,10 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>8.35</v>
+        <v>8</v>
       </c>
       <c r="K122" t="n">
-        <v>48.6</v>
+        <v>48</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6753</v>
+        <v>10187</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -5837,25 +5837,25 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>98.81549999999999</v>
+        <v>98</v>
       </c>
       <c r="F123" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>31.25</v>
+        <v>31</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>5.04</v>
+        <v>5</v>
       </c>
       <c r="K123" t="n">
-        <v>142.6055</v>
+        <v>142</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>6825</v>
+        <v>10259</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -5896,10 +5896,10 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>104.52</v>
+        <v>104</v>
       </c>
       <c r="K124" t="n">
-        <v>104.52</v>
+        <v>104</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>

--- a/src/exports/export_001/output/rads_2019_2022_total_menor_0.xlsx
+++ b/src/exports/export_001/output/rads_2019_2022_total_menor_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,55 +441,60 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>campus</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>periodo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>situacao</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>aula</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ensino</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>capacitacao</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pesquisa</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>extensao</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>administracao</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>total_nao_homologado</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>siape</t>
         </is>
@@ -501,16 +506,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -533,7 +540,10 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>3107522</t>
         </is>
@@ -545,16 +555,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -577,7 +589,10 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>2143412</t>
         </is>
@@ -589,16 +604,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -619,9 +636,12 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1220945</t>
         </is>
@@ -633,16 +653,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -663,9 +685,12 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>30</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1334003</t>
         </is>
@@ -677,16 +702,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -707,9 +734,12 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>102</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1241489</t>
         </is>
@@ -721,29 +751,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>-100.02</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>-100</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
@@ -753,7 +785,10 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>2127007</t>
         </is>
@@ -765,16 +800,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -797,7 +834,10 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>1612752</t>
         </is>
@@ -809,16 +849,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -841,7 +883,10 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>1537238</t>
         </is>
@@ -853,16 +898,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -880,12 +927,15 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>100</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>180</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1483514</t>
         </is>
@@ -897,16 +947,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -929,7 +981,10 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>1324364</t>
         </is>
@@ -941,16 +996,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -973,7 +1030,10 @@
       <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>2142690</t>
         </is>
@@ -985,23 +1045,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>76</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
@@ -1015,9 +1077,12 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>76</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>1509067</t>
         </is>
@@ -1029,26 +1094,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>75</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>18</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -1056,12 +1123,15 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>9</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>103</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>1346471</t>
         </is>
@@ -1073,16 +1143,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1103,9 +1175,12 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>5</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>47626</t>
         </is>
@@ -1117,16 +1192,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1147,9 +1224,12 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>83</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>2144132</t>
         </is>
@@ -1161,16 +1241,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1193,7 +1275,10 @@
       <c r="K17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>1245439</t>
         </is>
@@ -1205,16 +1290,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>CMPTRI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1235,9 +1322,12 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>83</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>1769084</t>
         </is>
@@ -1249,16 +1339,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1279,9 +1371,12 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>540</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>1774062</t>
         </is>
@@ -1293,39 +1388,44 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>2019/2</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>53</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>22</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>60</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>135</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>1727433</t>
         </is>
@@ -1337,16 +1437,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>2019/2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1364,12 +1466,15 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>100</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="n">
+        <v>100</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>1729966</t>
         </is>
@@ -1381,16 +1486,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>CMPIPA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>2019/2</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1413,7 +1520,10 @@
       <c r="K22" t="n">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>2414059</t>
         </is>
@@ -1425,23 +1535,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>2019/2</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>63</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
@@ -1455,9 +1567,12 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>63</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>1323554</t>
         </is>
@@ -1469,23 +1584,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>2019/2</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>79</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
@@ -1499,9 +1616,12 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>79</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>1509067</t>
         </is>
@@ -1513,39 +1633,44 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>2019/2</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>114</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>3</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>75</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
       <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>10</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>203</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>1940043</t>
         </is>
@@ -1557,16 +1682,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>2019/2</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1587,9 +1714,12 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>137</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>55349</t>
         </is>
@@ -1601,23 +1731,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>2019/2</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>91</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
@@ -1625,15 +1757,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>15</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>40</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>146</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>47626</t>
         </is>
@@ -1645,16 +1780,18 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>2019/2</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1663,11 +1800,11 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>100</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
@@ -1675,9 +1812,12 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>100</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>2409149</t>
         </is>
@@ -1689,23 +1829,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>2019/2</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>3</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
@@ -1716,12 +1858,15 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>83</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>87</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>1026394</t>
         </is>
@@ -1733,39 +1878,44 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>CMPTRI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>2019/2</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>86</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>3</v>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>11</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>109</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>210</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>2610738</t>
         </is>
@@ -1777,16 +1927,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>2019/2</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1807,9 +1959,12 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>32</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>1440926</t>
         </is>
@@ -1821,23 +1976,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>2020/1</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>53</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
@@ -1848,12 +2005,15 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>129</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>183</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>1864815</t>
         </is>
@@ -1865,39 +2025,44 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>2020/1</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>71</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>22</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>191</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>285</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>2410396</t>
         </is>
@@ -1909,16 +2074,18 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>2020/1</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1941,7 +2108,10 @@
       <c r="K34" t="n">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>1272911</t>
         </is>
@@ -1953,16 +2123,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>2020/1</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1985,7 +2157,10 @@
       <c r="K35" t="n">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>1248259</t>
         </is>
@@ -1997,23 +2172,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>2020/1</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>84</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
@@ -2024,12 +2201,15 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>20</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>104</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>2971577</t>
         </is>
@@ -2041,16 +2221,18 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>2020/1</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2059,11 +2241,11 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>200</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
@@ -2071,9 +2253,12 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>200</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>2409149</t>
         </is>
@@ -2085,16 +2270,18 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2117,7 +2304,10 @@
       <c r="K38" t="n">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>1296640</t>
         </is>
@@ -2129,16 +2319,18 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>CMPTRI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2156,12 +2348,15 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>112</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="n">
+        <v>112</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>1738865</t>
         </is>
@@ -2173,23 +2368,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>70</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
@@ -2200,12 +2397,15 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>20</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>90</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>1557146</t>
         </is>
@@ -2217,16 +2417,18 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -2249,7 +2451,10 @@
       <c r="K41" t="n">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>1269098</t>
         </is>
@@ -2261,16 +2466,18 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2282,18 +2489,21 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>5</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>50</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>55</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>1727680</t>
         </is>
@@ -2305,39 +2515,44 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>65</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>3</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>12</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>16</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>97</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>2891401</t>
         </is>
@@ -2349,23 +2564,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>116</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
@@ -2379,9 +2596,12 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>116</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>1276280</t>
         </is>
@@ -2393,16 +2613,18 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2420,12 +2642,15 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>100</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="n">
+        <v>100</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>1248259</t>
         </is>
@@ -2437,39 +2662,44 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>74</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
         <v>74</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>1</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>48</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>201</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>1908835</t>
         </is>
@@ -2481,23 +2711,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>75</v>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
@@ -2508,12 +2740,15 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>22</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>97</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>1509067</t>
         </is>
@@ -2525,39 +2760,44 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>42</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>3</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>15</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>108</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>71</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>240</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>1045566</t>
         </is>
@@ -2569,39 +2809,44 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>89</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>16</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>6</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>112</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>1889160</t>
         </is>
@@ -2613,16 +2858,18 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2645,7 +2892,10 @@
       <c r="K50" t="n">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>1788705</t>
         </is>
@@ -2657,39 +2907,44 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>99</v>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
       <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
         <v>7</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>12</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>66</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>187</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>1028396</t>
         </is>
@@ -2701,16 +2956,18 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2719,11 +2976,11 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
         <v>100</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
@@ -2731,9 +2988,12 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>100</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>2409149</t>
         </is>
@@ -2745,23 +3005,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
         <v>89</v>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
@@ -2772,12 +3034,15 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
         <v>22</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>112</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>1667899</t>
         </is>
@@ -2789,23 +3054,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>REITORIA</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
         <v>78</v>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
@@ -2816,12 +3083,15 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
         <v>10</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>88</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>1584232</t>
         </is>
@@ -2833,16 +3103,18 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -2863,9 +3135,12 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
         <v>83</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>2125192</t>
         </is>
@@ -2877,39 +3152,44 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
         <v>93</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>1</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>11</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>3</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>198</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>309</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>1552162</t>
         </is>
@@ -2921,23 +3201,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>CMPACAT</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
         <v>57</v>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
@@ -2951,9 +3233,12 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>142</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>1098889</t>
         </is>
@@ -2965,39 +3250,44 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
         <v>124</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>2</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
       <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
         <v>96</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>224</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>2141993</t>
         </is>
@@ -3009,16 +3299,18 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>CMPACAT</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -3027,11 +3319,11 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
         <v>100</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
@@ -3039,9 +3331,12 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>100</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>1851887</t>
         </is>
@@ -3053,23 +3348,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
         <v>47</v>
       </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
@@ -3080,12 +3377,15 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
         <v>100</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>147</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>1373791</t>
         </is>
@@ -3097,23 +3397,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
         <v>82</v>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
@@ -3124,12 +3426,15 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
         <v>83</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>165</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>1862925</t>
         </is>
@@ -3141,39 +3446,44 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
         <v>67</v>
       </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
       <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
         <v>4</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>7</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
       <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
         <v>124</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>203</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>1915318</t>
         </is>
@@ -3185,39 +3495,44 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
         <v>61</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>22</v>
       </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>31</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
       <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
         <v>157</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>275</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>1864815</t>
         </is>
@@ -3229,39 +3544,44 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
         <v>78</v>
       </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>7</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
       <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
         <v>140</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>226</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>2345792</t>
         </is>
@@ -3273,16 +3593,18 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -3291,11 +3613,11 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
         <v>100</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
@@ -3303,9 +3625,12 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>100</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>1051756</t>
         </is>
@@ -3317,39 +3642,44 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>CMPACAT</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
         <v>86</v>
       </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>7</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
       <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
         <v>160</v>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>254</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>1107135</t>
         </is>
@@ -3361,39 +3691,44 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
         <v>106</v>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>15</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
       <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
         <v>46</v>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>167</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>1732252</t>
         </is>
@@ -3405,39 +3740,44 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>CMPTRI</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
         <v>117</v>
       </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>10</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
       <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
         <v>51</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>178</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>1264211</t>
         </is>
@@ -3449,26 +3789,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>CMPACAT</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
         <v>118</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>7</v>
       </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
@@ -3476,12 +3818,15 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
         <v>71</v>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>197</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>1075521</t>
         </is>
@@ -3493,23 +3838,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
         <v>107</v>
       </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
@@ -3520,12 +3867,15 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
         <v>24</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>132</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>1552422</t>
         </is>
@@ -3537,23 +3887,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>CMPACAT</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
         <v>70</v>
       </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
@@ -3561,15 +3913,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
         <v>3</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>52</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>126</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>1290781</t>
         </is>
@@ -3581,23 +3936,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
         <v>140</v>
       </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
@@ -3608,12 +3965,15 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
         <v>20</v>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>160</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>1557146</t>
         </is>
@@ -3625,39 +3985,44 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
         <v>98</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>15</v>
-      </c>
-      <c r="G73" t="n">
-        <v>7</v>
       </c>
       <c r="H73" t="n">
         <v>7</v>
       </c>
       <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
         <v>2</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>109</v>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>240</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>1145873</t>
         </is>
@@ -3669,16 +4034,18 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3701,7 +4068,10 @@
       <c r="K74" t="n">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>1276280</t>
         </is>
@@ -3713,16 +4083,18 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3731,11 +4103,11 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
         <v>100</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
@@ -3743,9 +4115,12 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
         <v>100</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>1612752</t>
         </is>
@@ -3757,16 +4132,18 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -3775,11 +4152,11 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
         <v>100</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
@@ -3787,9 +4164,12 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
         <v>100</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>1002598</t>
         </is>
@@ -3801,39 +4181,44 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>CMPPOS</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
         <v>71</v>
       </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
       <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
         <v>49</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>14</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
       <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
         <v>127</v>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>263</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>2184731</t>
         </is>
@@ -3845,29 +4230,31 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>CMPCRIS</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
         <v>100</v>
       </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
       <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
         <v>49</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
@@ -3875,9 +4262,12 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
         <v>150</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>1189283</t>
         </is>
@@ -3889,39 +4279,44 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
         <v>111</v>
       </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
       <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
         <v>41</v>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>155</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>2971577</t>
         </is>
@@ -3933,16 +4328,18 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -3951,21 +4348,24 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
         <v>100</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>11</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
       <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
         <v>10</v>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>121</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>1121960</t>
         </is>
@@ -3977,23 +4377,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>CMPPOS</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
         <v>51</v>
       </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
@@ -4007,9 +4409,12 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
         <v>51</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>1552321</t>
         </is>
@@ -4021,39 +4426,44 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
         <v>75</v>
       </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
       <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
         <v>10</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>35</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
       <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
         <v>66</v>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>187</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>3086731</t>
         </is>
@@ -4065,23 +4475,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
         <v>52</v>
       </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
@@ -4089,15 +4501,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
         <v>1</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>33</v>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>87</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>47626</t>
         </is>
@@ -4109,16 +4524,18 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>CMPTRI</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -4136,12 +4553,15 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>83</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="n">
+        <v>83</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>1103665</t>
         </is>
@@ -4153,39 +4573,44 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>CMPPOS</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
         <v>98</v>
       </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
         <v>2</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>31</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>10</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>34</v>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>175</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>3216813</t>
         </is>
@@ -4197,23 +4622,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
         <v>72</v>
       </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
@@ -4224,12 +4651,15 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
         <v>46</v>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>118</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>1228612</t>
         </is>
@@ -4241,16 +4671,18 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>CMPACAT</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -4271,9 +4703,12 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
         <v>146</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>1098889</t>
         </is>
@@ -4285,23 +4720,25 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>CMPACAT</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
         <v>112</v>
       </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
@@ -4312,12 +4749,15 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
         <v>52</v>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>164</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>3049201</t>
         </is>
@@ -4329,23 +4769,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
         <v>87</v>
       </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
@@ -4356,12 +4798,15 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
         <v>20</v>
       </c>
-      <c r="K89" t="n">
+      <c r="L89" t="n">
         <v>107</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>1557146</t>
         </is>
@@ -4373,16 +4818,18 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -4405,7 +4852,10 @@
       <c r="K90" t="n">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>1269098</t>
         </is>
@@ -4417,26 +4867,28 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
         <v>81</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>1</v>
       </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
@@ -4447,9 +4899,12 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
         <v>82</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>2954456</t>
         </is>
@@ -4461,23 +4916,25 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
         <v>61</v>
       </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
@@ -4491,9 +4948,12 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
         <v>61</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>1276280</t>
         </is>
@@ -4505,16 +4965,18 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -4523,11 +4985,11 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
         <v>100</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
@@ -4535,9 +4997,12 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
         <v>100</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>1002598</t>
         </is>
@@ -4549,16 +5014,18 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -4576,12 +5043,15 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>100</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="n">
+        <v>100</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>1537295</t>
         </is>
@@ -4593,16 +5063,18 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -4611,11 +5083,11 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
         <v>100</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
@@ -4623,9 +5095,12 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
         <v>100</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="M95" t="inlineStr">
         <is>
           <t>1189232</t>
         </is>
@@ -4637,16 +5112,18 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -4655,11 +5132,11 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
         <v>100</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
@@ -4667,9 +5144,12 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
         <v>100</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="M96" t="inlineStr">
         <is>
           <t>1867392</t>
         </is>
@@ -4681,23 +5161,25 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>CMPIPR</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
         <v>75</v>
       </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
@@ -4708,12 +5190,15 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
         <v>266</v>
       </c>
-      <c r="K97" t="n">
+      <c r="L97" t="n">
         <v>342</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>1956702</t>
         </is>
@@ -4725,39 +5210,44 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
         <v>49</v>
       </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
       <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
         <v>49</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
         <v>82</v>
       </c>
-      <c r="K98" t="n">
+      <c r="L98" t="n">
         <v>181</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>2179888</t>
         </is>
@@ -4769,39 +5259,44 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>CMPIPR</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
         <v>80</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>1</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>2</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
         <v>56</v>
       </c>
-      <c r="K99" t="n">
+      <c r="L99" t="n">
         <v>141</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>1819418</t>
         </is>
@@ -4813,39 +5308,44 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>CMPIPR</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
         <v>10</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>5</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>59</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>11</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
       <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
         <v>44</v>
       </c>
-      <c r="K100" t="n">
+      <c r="L100" t="n">
         <v>130</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="M100" t="inlineStr">
         <is>
           <t>2133229</t>
         </is>
@@ -4857,39 +5357,44 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>CMPIPR</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
         <v>74</v>
       </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
       <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
         <v>3</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
         <v>77</v>
       </c>
-      <c r="K101" t="n">
+      <c r="L101" t="n">
         <v>154</v>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="M101" t="inlineStr">
         <is>
           <t>1057272</t>
         </is>
@@ -4901,16 +5406,18 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -4928,12 +5435,15 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>100</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="n">
+        <v>100</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>1584494</t>
         </is>
@@ -4945,39 +5455,44 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
         <v>15</v>
       </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>10</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>5</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
       <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
         <v>30</v>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>1465223</t>
         </is>
@@ -4989,23 +5504,25 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
         <v>92</v>
       </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
@@ -5019,9 +5536,12 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
         <v>92</v>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>1494897</t>
         </is>
@@ -5033,16 +5553,18 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>CMPTRI</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -5051,11 +5573,11 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
         <v>100</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
@@ -5063,9 +5585,12 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
         <v>100</v>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="M105" t="inlineStr">
         <is>
           <t>2578102</t>
         </is>
@@ -5077,16 +5602,18 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>REITORIA</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -5104,12 +5631,15 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
         <v>183</v>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="L106" t="n">
+        <v>183</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>1552343</t>
         </is>
@@ -5121,23 +5651,25 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
           <t>2022/1</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
         <v>47</v>
       </c>
-      <c r="F107" t="n">
-        <v>0</v>
-      </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
@@ -5148,12 +5680,15 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
         <v>90</v>
       </c>
-      <c r="K107" t="n">
+      <c r="L107" t="n">
         <v>138</v>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="M107" t="inlineStr">
         <is>
           <t>1864815</t>
         </is>
@@ -5165,16 +5700,18 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>CMPACAT</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
           <t>2022/1</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -5197,7 +5734,10 @@
       <c r="K108" t="n">
         <v>0</v>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>1075521</t>
         </is>
@@ -5209,16 +5749,18 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
           <t>2022/1</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -5241,7 +5783,10 @@
       <c r="K109" t="n">
         <v>0</v>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>1272911</t>
         </is>
@@ -5253,23 +5798,25 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>2022/1</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
         <v>184</v>
       </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
       <c r="G110" t="n">
         <v>0</v>
       </c>
@@ -5283,9 +5830,12 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
         <v>184</v>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="M110" t="inlineStr">
         <is>
           <t>1276280</t>
         </is>
@@ -5297,16 +5847,18 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
           <t>2022/1</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -5324,12 +5876,15 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
         <v>100</v>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="L111" t="n">
+        <v>100</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>1209912</t>
         </is>
@@ -5341,23 +5896,25 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>2022/1</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
         <v>87</v>
       </c>
-      <c r="F112" t="n">
-        <v>0</v>
-      </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
@@ -5368,12 +5925,15 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
         <v>8</v>
       </c>
-      <c r="K112" t="n">
+      <c r="L112" t="n">
         <v>95</v>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="M112" t="inlineStr">
         <is>
           <t>1822432</t>
         </is>
@@ -5385,16 +5945,18 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>2022/1</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -5415,9 +5977,12 @@
         <v>0</v>
       </c>
       <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
         <v>144</v>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>1812318</t>
         </is>
@@ -5429,39 +5994,44 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>2022/1</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
         <v>77</v>
       </c>
-      <c r="F114" t="n">
-        <v>0</v>
-      </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>11</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
       <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
         <v>5</v>
       </c>
-      <c r="K114" t="n">
+      <c r="L114" t="n">
         <v>124</v>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>1216890</t>
         </is>
@@ -5473,23 +6043,25 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
           <t>2022/1</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
         <v>61</v>
       </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
       <c r="G115" t="n">
         <v>0</v>
       </c>
@@ -5500,12 +6072,15 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
         <v>28</v>
       </c>
-      <c r="K115" t="n">
+      <c r="L115" t="n">
         <v>89</v>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="M115" t="inlineStr">
         <is>
           <t>2892574</t>
         </is>
@@ -5517,16 +6092,18 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>CMPTRI</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
           <t>2022/1</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>0</v>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -5549,7 +6126,10 @@
       <c r="K116" t="n">
         <v>0</v>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>1087619</t>
         </is>
@@ -5561,26 +6141,28 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>CMPTRI</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>2022/1</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
         <v>74</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>20</v>
       </c>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
@@ -5588,12 +6170,15 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
         <v>17</v>
       </c>
-      <c r="K117" t="n">
+      <c r="L117" t="n">
         <v>111</v>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="M117" t="inlineStr">
         <is>
           <t>1791788</t>
         </is>
@@ -5605,39 +6190,44 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>2022/2</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>0</v>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
         <v>93</v>
       </c>
-      <c r="F118" t="n">
-        <v>0</v>
-      </c>
       <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>22</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>78</v>
       </c>
-      <c r="J118" t="n">
+      <c r="K118" t="n">
         <v>88</v>
       </c>
-      <c r="K118" t="n">
+      <c r="L118" t="n">
         <v>283</v>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="M118" t="inlineStr">
         <is>
           <t>1407950</t>
         </is>
@@ -5649,16 +6239,18 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>2022/2</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -5667,11 +6259,11 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
         <v>100</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
@@ -5679,9 +6271,12 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
         <v>100</v>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="M119" t="inlineStr">
         <is>
           <t>1384130</t>
         </is>
@@ -5693,23 +6288,25 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>2022/2</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
         <v>69</v>
       </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
       <c r="G120" t="n">
         <v>0</v>
       </c>
@@ -5723,9 +6320,12 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
         <v>69</v>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="M120" t="inlineStr">
         <is>
           <t>1276280</t>
         </is>
@@ -5737,16 +6337,18 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
           <t>2022/2</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>0</v>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -5764,12 +6366,15 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
         <v>100</v>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="L121" t="n">
+        <v>100</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>1209912</t>
         </is>
@@ -5781,23 +6386,25 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
           <t>2022/2</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
         <v>40</v>
       </c>
-      <c r="F122" t="n">
-        <v>0</v>
-      </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
@@ -5808,12 +6415,15 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
         <v>8</v>
       </c>
-      <c r="K122" t="n">
+      <c r="L122" t="n">
         <v>48</v>
       </c>
-      <c r="L122" t="inlineStr">
+      <c r="M122" t="inlineStr">
         <is>
           <t>1822432</t>
         </is>
@@ -5825,39 +6435,44 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>2022/2</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
         <v>98</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>7</v>
       </c>
-      <c r="G123" t="n">
-        <v>0</v>
-      </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>31</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
       <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
         <v>5</v>
       </c>
-      <c r="K123" t="n">
+      <c r="L123" t="n">
         <v>142</v>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="M123" t="inlineStr">
         <is>
           <t>1216890</t>
         </is>
@@ -5869,16 +6484,18 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
           <t>2022/2</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>0</v>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -5896,12 +6513,15 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
         <v>104</v>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="L124" t="n">
+        <v>104</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>2892574</t>
         </is>

--- a/src/exports/export_001/output/rads_2019_2022_total_menor_0.xlsx
+++ b/src/exports/export_001/output/rads_2019_2022_total_menor_0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
